--- a/3 Random Variables/Homework/JulyNormalHW.xlsx
+++ b/3 Random Variables/Homework/JulyNormalHW.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\3 Random Variables\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>         a. What is the probability that from 400 through 1,100 station wagons are sold during one week?</t>
   </si>
@@ -125,12 +125,30 @@
   </si>
   <si>
     <t>      b. What fraction of cans have less than 12.1 ounces?</t>
+  </si>
+  <si>
+    <t>mean = 12.03</t>
+  </si>
+  <si>
+    <t>std = 0.05</t>
+  </si>
+  <si>
+    <t>mean = 40000</t>
+  </si>
+  <si>
+    <t>std = 10000</t>
+  </si>
+  <si>
+    <t>mean = 1000</t>
+  </si>
+  <si>
+    <t>std = 250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -477,16 +495,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="91.81640625" customWidth="1"/>
+    <col min="1" max="1" width="91.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1">
@@ -520,7 +538,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="53">
+    <row r="7" spans="1:6" ht="54.75">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -535,14 +553,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5">
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="123" customHeight="1">
-      <c r="A11" s="3"/>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <f>_xlfn.NORM.INV(0.95,40000,10000)</f>
+        <v>56448.53626951472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+      <c r="B12">
+        <f>1-_xlfn.NORM.DIST(12,12.03,0.05,TRUE)</f>
+        <v>0.72574688224992223</v>
+      </c>
+      <c r="D12">
+        <f>_xlfn.NORM.DIST(49000,40000,10000,TRUE)-_xlfn.NORM.DIST(35000,40000,10000,TRUE)</f>
+        <v>0.50740233592725359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13">
+        <f>_xlfn.NORM.DIST(12.1,12.03,0.05,TRUE)</f>
+        <v>0.91924334076622982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f>_xlfn.NORM.INV(0.01,1000,250)</f>
+        <v>418.41303148978977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <f>_xlfn.NORM.DIST(1100,1000,250,TRUE)-_xlfn.NORM.DIST(400,1000,250,TRUE)</f>
+        <v>0.64722420568572814</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
